--- a/平成31年度/R01引き継ぎ資料事務局.xlsx
+++ b/平成31年度/R01引き継ぎ資料事務局.xlsx
@@ -585,25 +585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※WIZの事務局届くにﾒｰﾙ（G-MAIL）は必ず毎日確認する。</t>
-    <rPh sb="5" eb="8">
-      <t>ジムキョク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◎</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -999,6 +980,25 @@
   </si>
   <si>
     <t>栃尾地域の小学校へ配布。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※WIZの事務局に届くﾒｰﾙ（G-MAIL）は必ず毎日確認する。</t>
+    <rPh sb="5" eb="8">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1404,11 +1404,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1744,18 +1744,18 @@
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="37"/>
+      <c r="A7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="38"/>
       <c r="C7" s="7"/>
       <c r="D7" s="30" t="s">
         <v>2</v>
@@ -1784,11 +1784,11 @@
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="G7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1896,7 +1896,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="16"/>
       <c r="G12" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1934,7 +1934,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="16"/>
       <c r="G14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -2018,7 +2018,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="16"/>
       <c r="G18" s="22" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2042,10 +2042,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="11"/>
@@ -2091,7 +2091,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -2177,7 +2177,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="19"/>
       <c r="G25" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2218,12 +2218,12 @@
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
       <c r="D27" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="16"/>
       <c r="G27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2266,7 +2266,7 @@
       <c r="D29" s="33"/>
       <c r="E29" s="17"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="18"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -2311,7 +2311,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="16"/>
       <c r="G31" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -2324,17 +2324,17 @@
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11"/>
       <c r="D32" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2349,21 +2349,21 @@
       <c r="C33" s="16"/>
       <c r="D33" s="32"/>
       <c r="G33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="16"/>
       <c r="D34" s="32"/>
       <c r="G34" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="16"/>
       <c r="D35" s="32"/>
       <c r="G35" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,7 +2374,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
